--- a/documents/Published/Rotating Tile/RotatingTileByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Rotating Tile/RotatingTileByMAQSoftwareChecklist.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18521"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lokes\Desktop\Power BI Build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Rotating Tile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EF41B9-B667-4FCD-953F-00198656D742}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7965" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
   </bookViews>
@@ -583,43 +584,43 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,7 +1075,7 @@
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1344,29 +1345,29 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
@@ -1380,41 +1381,41 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="26">
         <v>16</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
